--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2723.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2723.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.16510140215171</v>
+        <v>0.9267526865005493</v>
       </c>
       <c r="B1">
-        <v>2.40109823476255</v>
+        <v>1.575770735740662</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.131964445114136</v>
       </c>
       <c r="D1">
-        <v>2.362461514607387</v>
+        <v>3.408442497253418</v>
       </c>
       <c r="E1">
-        <v>1.215114581901857</v>
+        <v>0.3659143447875977</v>
       </c>
     </row>
   </sheetData>
